--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,6 +1372,43 @@
         <v>376</v>
       </c>
       <c r="I25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45812.43565972222</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>380</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>376</v>
+      </c>
+      <c r="I26" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1386,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2326,6 +2363,43 @@
         <v>376</v>
       </c>
       <c r="I25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45812.43565972222</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>380</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>376</v>
+      </c>
+      <c r="I26" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2340,7 +2414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3280,6 +3354,43 @@
         <v>130</v>
       </c>
       <c r="I25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45812.43565972222</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>130</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>130</v>
+      </c>
+      <c r="I26" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3294,7 +3405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4237,6 +4348,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45812.43565972222</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>130</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>130</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,6 +1409,43 @@
         <v>376</v>
       </c>
       <c r="I26" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45813.43701388889</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>380</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>376</v>
+      </c>
+      <c r="I27" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1423,7 +1460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2400,6 +2437,43 @@
         <v>376</v>
       </c>
       <c r="I26" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45813.43701388889</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>380</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>376</v>
+      </c>
+      <c r="I27" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2414,7 +2488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3391,6 +3465,43 @@
         <v>130</v>
       </c>
       <c r="I26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45813.43701388889</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>130</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>130</v>
+      </c>
+      <c r="I27" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3405,7 +3516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4385,6 +4496,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45813.43701388889</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x00,0x81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>130</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>129</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0x01,0x78</t>
+          <t>0x01,0x7C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1295,7 +1295,7 @@
         <v>7.598631275147109e+23</v>
       </c>
       <c r="H23" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I23" t="n">
         <v>14</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0x01,0x78</t>
+          <t>0x01,0x7C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1332,7 +1332,7 @@
         <v>7.598631275147109e+23</v>
       </c>
       <c r="H24" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I24" t="n">
         <v>14</v>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0x01,0x78</t>
+          <t>0x01,0x7C</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1369,7 +1369,7 @@
         <v>7.598631275147109e+23</v>
       </c>
       <c r="H25" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I25" t="n">
         <v>14</v>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0x01,0x78</t>
+          <t>0x01,0x7C</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1406,7 +1406,7 @@
         <v>7.598631275147109e+23</v>
       </c>
       <c r="H26" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I26" t="n">
         <v>14</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0x01,0x78</t>
+          <t>0x01,0x7C</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1443,9 +1443,46 @@
         <v>7.598631275147109e+23</v>
       </c>
       <c r="H27" t="n">
+        <v>380</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45814.43530092593</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>380</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H28" t="n">
         <v>376</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1460,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,7 +2345,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0x01,0x78</t>
+          <t>0x01,0x7C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2323,7 +2360,7 @@
         <v>5.68432987514711e+23</v>
       </c>
       <c r="H23" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I23" t="n">
         <v>14</v>
@@ -2345,7 +2382,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0x01,0x78</t>
+          <t>0x01,0x7C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2360,7 +2397,7 @@
         <v>5.68432987514711e+23</v>
       </c>
       <c r="H24" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I24" t="n">
         <v>14</v>
@@ -2382,7 +2419,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0x01,0x78</t>
+          <t>0x01,0x7C</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2397,7 +2434,7 @@
         <v>5.68432987514711e+23</v>
       </c>
       <c r="H25" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I25" t="n">
         <v>14</v>
@@ -2419,7 +2456,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0x01,0x78</t>
+          <t>0x01,0x7C</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2434,7 +2471,7 @@
         <v>5.68432987514711e+23</v>
       </c>
       <c r="H26" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I26" t="n">
         <v>14</v>
@@ -2456,7 +2493,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0x01,0x78</t>
+          <t>0x01,0x7C</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2471,9 +2508,46 @@
         <v>5.68432987514711e+23</v>
       </c>
       <c r="H27" t="n">
+        <v>380</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45814.43530092593</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>380</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H28" t="n">
         <v>376</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2488,7 +2562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3502,6 +3576,43 @@
         <v>130</v>
       </c>
       <c r="I27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45814.43530092593</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>130</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>129</v>
+      </c>
+      <c r="I28" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3516,7 +3627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4512,7 +4623,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0x00,0x81</t>
+          <t>0x00,0x82</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4527,9 +4638,46 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H27" t="n">
+        <v>130</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45814.43530092593</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x00,0x81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>130</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H28" t="n">
         <v>129</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>3</v>
       </c>
     </row>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,6 +1483,43 @@
         <v>376</v>
       </c>
       <c r="I28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45815.43923611111</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>380</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>376</v>
+      </c>
+      <c r="I29" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1497,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2548,6 +2585,43 @@
         <v>376</v>
       </c>
       <c r="I28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45815.43923611111</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>380</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>376</v>
+      </c>
+      <c r="I29" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2562,7 +2636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3613,6 +3687,43 @@
         <v>129</v>
       </c>
       <c r="I28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45815.43923611111</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>130</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>129</v>
+      </c>
+      <c r="I29" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3627,7 +3738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4681,6 +4792,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45815.43923611111</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x00,0x81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>130</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>129</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,6 +1520,43 @@
         <v>376</v>
       </c>
       <c r="I29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45816.43944444445</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>380</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>376</v>
+      </c>
+      <c r="I30" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1534,7 +1571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2622,6 +2659,43 @@
         <v>376</v>
       </c>
       <c r="I29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45816.43944444445</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>380</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>376</v>
+      </c>
+      <c r="I30" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2636,7 +2710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3724,6 +3798,43 @@
         <v>129</v>
       </c>
       <c r="I29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45816.43944444445</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>130</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>129</v>
+      </c>
+      <c r="I30" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3738,7 +3849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4829,6 +4940,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45816.43944444445</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x00,0x81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>130</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>129</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,6 +1557,43 @@
         <v>376</v>
       </c>
       <c r="I30" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45817.43892361111</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>380</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>376</v>
+      </c>
+      <c r="I31" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1571,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2696,6 +2733,43 @@
         <v>376</v>
       </c>
       <c r="I30" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45817.43892361111</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>380</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>376</v>
+      </c>
+      <c r="I31" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2710,7 +2784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3835,6 +3909,43 @@
         <v>129</v>
       </c>
       <c r="I30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45817.43892361111</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>130</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>129</v>
+      </c>
+      <c r="I31" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3849,7 +3960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4977,6 +5088,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45817.43892361111</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x00,0x81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>130</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>129</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,6 +1594,43 @@
         <v>376</v>
       </c>
       <c r="I31" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45818.43747685185</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>380</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>372</v>
+      </c>
+      <c r="I32" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1608,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2770,6 +2807,43 @@
         <v>376</v>
       </c>
       <c r="I31" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45818.43747685185</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>380</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>372</v>
+      </c>
+      <c r="I32" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2784,7 +2858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3946,6 +4020,43 @@
         <v>129</v>
       </c>
       <c r="I31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45818.43747685185</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>130</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>129</v>
+      </c>
+      <c r="I32" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3960,7 +4071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5125,6 +5236,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45818.43747685185</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x00,0x81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>130</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>129</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,6 +1631,80 @@
         <v>372</v>
       </c>
       <c r="I32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45819.43640046296</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>380</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>372</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45820.43376157407</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>380</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>372</v>
+      </c>
+      <c r="I34" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1645,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2844,6 +2918,80 @@
         <v>372</v>
       </c>
       <c r="I32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45819.43640046296</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>380</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>372</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45820.43376157407</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>380</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>372</v>
+      </c>
+      <c r="I34" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2858,7 +3006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4057,6 +4205,80 @@
         <v>129</v>
       </c>
       <c r="I32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45819.43640046296</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>130</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>129</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45820.43376157407</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>130</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>128</v>
+      </c>
+      <c r="I34" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4071,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5273,6 +5495,80 @@
         <v>3</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45819.43640046296</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x00,0x81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>130</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>129</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45820.43376157407</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x00,0x81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>130</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>129</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,6 +1705,43 @@
         <v>372</v>
       </c>
       <c r="I34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45821.43564814814</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>380</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H35" t="n">
+        <v>372</v>
+      </c>
+      <c r="I35" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1719,7 +1756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2992,6 +3029,43 @@
         <v>372</v>
       </c>
       <c r="I34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45821.43564814814</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>380</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H35" t="n">
+        <v>372</v>
+      </c>
+      <c r="I35" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3006,7 +3080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4279,6 +4353,43 @@
         <v>128</v>
       </c>
       <c r="I34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45821.43564814814</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>130</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H35" t="n">
+        <v>128</v>
+      </c>
+      <c r="I35" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4293,7 +4404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5569,6 +5680,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45821.43564814814</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>130</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H35" t="n">
+        <v>128</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,6 +1742,43 @@
         <v>372</v>
       </c>
       <c r="I35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45822.43604166667</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>380</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>368</v>
+      </c>
+      <c r="I36" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1756,7 +1793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3066,6 +3103,43 @@
         <v>372</v>
       </c>
       <c r="I35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45822.43604166667</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>380</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>368</v>
+      </c>
+      <c r="I36" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3080,7 +3154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4390,6 +4464,43 @@
         <v>128</v>
       </c>
       <c r="I35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45822.43604166667</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>130</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>128</v>
+      </c>
+      <c r="I36" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4404,7 +4515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5717,6 +5828,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45822.43604166667</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>130</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>128</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1779,6 +1779,43 @@
         <v>368</v>
       </c>
       <c r="I36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45823.43395833333</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>380</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H37" t="n">
+        <v>368</v>
+      </c>
+      <c r="I37" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1793,7 +1830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3140,6 +3177,43 @@
         <v>368</v>
       </c>
       <c r="I36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45823.43395833333</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>380</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H37" t="n">
+        <v>368</v>
+      </c>
+      <c r="I37" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3154,7 +3228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,6 +4575,43 @@
         <v>128</v>
       </c>
       <c r="I36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45823.43395833333</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>130</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H37" t="n">
+        <v>128</v>
+      </c>
+      <c r="I37" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4515,7 +4626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,6 +5976,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45823.43395833333</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>130</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H37" t="n">
+        <v>128</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,6 +1816,43 @@
         <v>368</v>
       </c>
       <c r="I37" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45824.43559027778</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>380</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H38" t="n">
+        <v>368</v>
+      </c>
+      <c r="I38" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1830,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3214,6 +3251,43 @@
         <v>368</v>
       </c>
       <c r="I37" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45824.43559027778</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>380</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H38" t="n">
+        <v>368</v>
+      </c>
+      <c r="I38" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3228,7 +3302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4612,6 +4686,43 @@
         <v>128</v>
       </c>
       <c r="I37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45824.43559027778</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>130</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H38" t="n">
+        <v>128</v>
+      </c>
+      <c r="I38" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4626,7 +4737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6013,6 +6124,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45824.43559027778</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>130</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H38" t="n">
+        <v>128</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1853,6 +1853,43 @@
         <v>368</v>
       </c>
       <c r="I38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45825.43813657408</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x6C</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>380</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H39" t="n">
+        <v>364</v>
+      </c>
+      <c r="I39" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1867,7 +1904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3288,6 +3325,43 @@
         <v>368</v>
       </c>
       <c r="I38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45825.43813657408</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>380</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H39" t="n">
+        <v>368</v>
+      </c>
+      <c r="I39" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3302,7 +3376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4723,6 +4797,43 @@
         <v>128</v>
       </c>
       <c r="I38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45825.43813657408</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>130</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H39" t="n">
+        <v>128</v>
+      </c>
+      <c r="I39" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4737,7 +4848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6161,6 +6272,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45825.43813657408</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>130</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H39" t="n">
+        <v>128</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1890,6 +1890,43 @@
         <v>364</v>
       </c>
       <c r="I39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45826.43626157408</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x6C</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>380</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H40" t="n">
+        <v>364</v>
+      </c>
+      <c r="I40" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1904,7 +1941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3362,6 +3399,43 @@
         <v>368</v>
       </c>
       <c r="I39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45826.43626157408</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x6C</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>380</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H40" t="n">
+        <v>364</v>
+      </c>
+      <c r="I40" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3376,7 +3450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4834,6 +4908,43 @@
         <v>128</v>
       </c>
       <c r="I39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45826.43626157408</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>130</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H40" t="n">
+        <v>128</v>
+      </c>
+      <c r="I40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4848,7 +4959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6309,6 +6420,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45826.43626157408</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x00,0x80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>130</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H40" t="n">
+        <v>128</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1927,6 +1927,43 @@
         <v>364</v>
       </c>
       <c r="I40" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45827.43891203704</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x6C</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>380</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H41" t="n">
+        <v>364</v>
+      </c>
+      <c r="I41" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1941,7 +1978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3436,6 +3473,43 @@
         <v>364</v>
       </c>
       <c r="I40" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45827.43891203704</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x6C</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>380</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H41" t="n">
+        <v>364</v>
+      </c>
+      <c r="I41" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3450,7 +3524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4945,6 +5019,43 @@
         <v>128</v>
       </c>
       <c r="I40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45827.43891203704</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>130</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H41" t="n">
+        <v>127</v>
+      </c>
+      <c r="I41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4959,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6457,6 +6568,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45827.43891203704</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>130</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H41" t="n">
+        <v>127</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1964,6 +1964,43 @@
         <v>364</v>
       </c>
       <c r="I41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45828.43628472222</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x6C</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>380</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H42" t="n">
+        <v>364</v>
+      </c>
+      <c r="I42" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1978,7 +2015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3510,6 +3547,43 @@
         <v>364</v>
       </c>
       <c r="I41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45828.43628472222</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x6C</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>380</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H42" t="n">
+        <v>364</v>
+      </c>
+      <c r="I42" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3524,7 +3598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5056,6 +5130,43 @@
         <v>127</v>
       </c>
       <c r="I41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45828.43628472222</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>130</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H42" t="n">
+        <v>127</v>
+      </c>
+      <c r="I42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5070,7 +5181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6605,6 +6716,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45828.43628472222</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>130</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H42" t="n">
+        <v>127</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,6 +2001,43 @@
         <v>364</v>
       </c>
       <c r="I42" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45829.43844907408</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>380</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H43" t="n">
+        <v>360</v>
+      </c>
+      <c r="I43" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2015,7 +2052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3584,6 +3621,43 @@
         <v>364</v>
       </c>
       <c r="I42" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45829.43844907408</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>380</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H43" t="n">
+        <v>360</v>
+      </c>
+      <c r="I43" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3598,7 +3672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5167,6 +5241,43 @@
         <v>127</v>
       </c>
       <c r="I42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45829.43844907408</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>130</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H43" t="n">
+        <v>127</v>
+      </c>
+      <c r="I43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5181,7 +5292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6753,6 +6864,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45829.43844907408</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>130</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H43" t="n">
+        <v>127</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,6 +2038,43 @@
         <v>360</v>
       </c>
       <c r="I43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45830.43821759259</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>380</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H44" t="n">
+        <v>360</v>
+      </c>
+      <c r="I44" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2052,7 +2089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3658,6 +3695,43 @@
         <v>360</v>
       </c>
       <c r="I43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45830.43821759259</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>380</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H44" t="n">
+        <v>360</v>
+      </c>
+      <c r="I44" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3672,7 +3746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5278,6 +5352,43 @@
         <v>127</v>
       </c>
       <c r="I43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45830.43821759259</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>130</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H44" t="n">
+        <v>127</v>
+      </c>
+      <c r="I44" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5292,7 +5403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6901,6 +7012,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45830.43821759259</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>130</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H44" t="n">
+        <v>127</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,6 +2075,43 @@
         <v>360</v>
       </c>
       <c r="I44" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45831.43658564815</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>380</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H45" t="n">
+        <v>360</v>
+      </c>
+      <c r="I45" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2089,7 +2126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3732,6 +3769,43 @@
         <v>360</v>
       </c>
       <c r="I44" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45831.43658564815</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>380</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H45" t="n">
+        <v>360</v>
+      </c>
+      <c r="I45" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3746,7 +3820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5389,6 +5463,43 @@
         <v>127</v>
       </c>
       <c r="I44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45831.43658564815</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>130</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H45" t="n">
+        <v>127</v>
+      </c>
+      <c r="I45" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5403,7 +5514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7049,6 +7160,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45831.43658564815</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>130</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H45" t="n">
+        <v>127</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2112,6 +2112,43 @@
         <v>360</v>
       </c>
       <c r="I45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45832.43385416667</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>380</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H46" t="n">
+        <v>356</v>
+      </c>
+      <c r="I46" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2126,7 +2163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3806,6 +3843,43 @@
         <v>360</v>
       </c>
       <c r="I45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45832.43385416667</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x01,0x68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>380</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H46" t="n">
+        <v>360</v>
+      </c>
+      <c r="I46" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3820,7 +3894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5500,6 +5574,43 @@
         <v>127</v>
       </c>
       <c r="I45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45832.43385416667</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>130</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H46" t="n">
+        <v>127</v>
+      </c>
+      <c r="I46" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5514,7 +5625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,6 +7308,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45832.43385416667</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>130</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H46" t="n">
+        <v>127</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2149,6 +2149,43 @@
         <v>356</v>
       </c>
       <c r="I46" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45833.43362268519</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>380</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H47" t="n">
+        <v>356</v>
+      </c>
+      <c r="I47" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2163,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3880,6 +3917,43 @@
         <v>360</v>
       </c>
       <c r="I46" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45833.43362268519</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x01,0x68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>380</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H47" t="n">
+        <v>360</v>
+      </c>
+      <c r="I47" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3894,7 +3968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5611,6 +5685,43 @@
         <v>127</v>
       </c>
       <c r="I46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45833.43362268519</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>130</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H47" t="n">
+        <v>127</v>
+      </c>
+      <c r="I47" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5625,7 +5736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7345,6 +7456,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45833.43362268519</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>130</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H47" t="n">
+        <v>126</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,6 +2186,43 @@
         <v>356</v>
       </c>
       <c r="I47" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45834.43858796296</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>380</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H48" t="n">
+        <v>356</v>
+      </c>
+      <c r="I48" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2200,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3954,6 +3991,43 @@
         <v>360</v>
       </c>
       <c r="I47" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45834.43858796296</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>380</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H48" t="n">
+        <v>356</v>
+      </c>
+      <c r="I48" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3968,7 +4042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5722,6 +5796,43 @@
         <v>127</v>
       </c>
       <c r="I47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45834.43858796296</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>130</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H48" t="n">
+        <v>127</v>
+      </c>
+      <c r="I48" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5736,7 +5847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7493,6 +7604,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45834.43858796296</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>130</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H48" t="n">
+        <v>126</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2223,6 +2223,43 @@
         <v>356</v>
       </c>
       <c r="I48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45835.43721064815</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>380</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H49" t="n">
+        <v>356</v>
+      </c>
+      <c r="I49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2237,7 +2274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4028,6 +4065,43 @@
         <v>356</v>
       </c>
       <c r="I48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45835.43721064815</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>380</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H49" t="n">
+        <v>356</v>
+      </c>
+      <c r="I49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4042,7 +4116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5833,6 +5907,43 @@
         <v>127</v>
       </c>
       <c r="I48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45835.43721064815</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>130</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H49" t="n">
+        <v>127</v>
+      </c>
+      <c r="I49" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5847,7 +5958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7641,6 +7752,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45835.43721064815</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>130</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H49" t="n">
+        <v>126</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2260,6 +2260,43 @@
         <v>356</v>
       </c>
       <c r="I49" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45836.43600694444</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>380</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H50" t="n">
+        <v>356</v>
+      </c>
+      <c r="I50" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2274,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4102,6 +4139,43 @@
         <v>356</v>
       </c>
       <c r="I49" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45836.43600694444</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>380</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H50" t="n">
+        <v>356</v>
+      </c>
+      <c r="I50" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4116,7 +4190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5944,6 +6018,43 @@
         <v>127</v>
       </c>
       <c r="I49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45836.43600694444</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x00,0x7F</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>130</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H50" t="n">
+        <v>127</v>
+      </c>
+      <c r="I50" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5958,7 +6069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7789,6 +7900,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45836.43600694444</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>130</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H50" t="n">
+        <v>126</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,6 +2297,43 @@
         <v>356</v>
       </c>
       <c r="I50" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45837.43663194445</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>380</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H51" t="n">
+        <v>356</v>
+      </c>
+      <c r="I51" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2311,7 +2348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4176,6 +4213,43 @@
         <v>356</v>
       </c>
       <c r="I50" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45837.43663194445</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>380</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H51" t="n">
+        <v>356</v>
+      </c>
+      <c r="I51" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4190,7 +4264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6055,6 +6129,43 @@
         <v>127</v>
       </c>
       <c r="I50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45837.43663194445</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>130</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H51" t="n">
+        <v>126</v>
+      </c>
+      <c r="I51" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6069,7 +6180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7937,6 +8048,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45837.43663194445</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>130</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H51" t="n">
+        <v>126</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2334,6 +2334,43 @@
         <v>356</v>
       </c>
       <c r="I51" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45838.43719907408</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>380</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H52" t="n">
+        <v>352</v>
+      </c>
+      <c r="I52" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2348,7 +2385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4250,6 +4287,43 @@
         <v>356</v>
       </c>
       <c r="I51" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45838.43719907408</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>380</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H52" t="n">
+        <v>356</v>
+      </c>
+      <c r="I52" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4264,7 +4338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6166,6 +6240,43 @@
         <v>126</v>
       </c>
       <c r="I51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45838.43719907408</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>130</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H52" t="n">
+        <v>126</v>
+      </c>
+      <c r="I52" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6180,7 +6291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8085,6 +8196,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45838.43719907408</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>130</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H52" t="n">
+        <v>126</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,6 +2371,43 @@
         <v>352</v>
       </c>
       <c r="I52" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45839.43578703704</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>380</v>
+      </c>
+      <c r="G53" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H53" t="n">
+        <v>352</v>
+      </c>
+      <c r="I53" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2385,7 +2422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4324,6 +4361,43 @@
         <v>356</v>
       </c>
       <c r="I52" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45839.43578703704</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x01,0x64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>380</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H53" t="n">
+        <v>356</v>
+      </c>
+      <c r="I53" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4338,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6277,6 +6351,43 @@
         <v>126</v>
       </c>
       <c r="I52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45839.43578703704</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>130</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H53" t="n">
+        <v>126</v>
+      </c>
+      <c r="I53" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6291,7 +6402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8233,6 +8344,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45839.43578703704</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>130</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H53" t="n">
+        <v>126</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2408,6 +2408,43 @@
         <v>352</v>
       </c>
       <c r="I53" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45840.43655092592</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>380</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H54" t="n">
+        <v>352</v>
+      </c>
+      <c r="I54" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2422,7 +2459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4398,6 +4435,43 @@
         <v>356</v>
       </c>
       <c r="I53" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45840.43655092592</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>380</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H54" t="n">
+        <v>352</v>
+      </c>
+      <c r="I54" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4412,7 +4486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6388,6 +6462,43 @@
         <v>126</v>
       </c>
       <c r="I53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45840.43655092592</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>130</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H54" t="n">
+        <v>126</v>
+      </c>
+      <c r="I54" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6402,7 +6513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8381,6 +8492,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45840.43655092592</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>130</v>
+      </c>
+      <c r="G54" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H54" t="n">
+        <v>126</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,6 +2445,43 @@
         <v>352</v>
       </c>
       <c r="I54" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45841.43655092592</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>380</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H55" t="n">
+        <v>352</v>
+      </c>
+      <c r="I55" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2459,7 +2496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4472,6 +4509,43 @@
         <v>352</v>
       </c>
       <c r="I54" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45841.43655092592</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>380</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H55" t="n">
+        <v>352</v>
+      </c>
+      <c r="I55" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4486,7 +4560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6499,6 +6573,43 @@
         <v>126</v>
       </c>
       <c r="I54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45841.43655092592</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>130</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H55" t="n">
+        <v>126</v>
+      </c>
+      <c r="I55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6513,7 +6624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8529,6 +8640,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45841.43655092592</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>130</v>
+      </c>
+      <c r="G55" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H55" t="n">
+        <v>126</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2482,6 +2482,43 @@
         <v>352</v>
       </c>
       <c r="I55" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45842.43524305556</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>380</v>
+      </c>
+      <c r="G56" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H56" t="n">
+        <v>352</v>
+      </c>
+      <c r="I56" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2496,7 +2533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4546,6 +4583,43 @@
         <v>352</v>
       </c>
       <c r="I55" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45842.43524305556</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>380</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H56" t="n">
+        <v>352</v>
+      </c>
+      <c r="I56" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4560,7 +4634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6610,6 +6684,43 @@
         <v>126</v>
       </c>
       <c r="I55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45842.43524305556</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>130</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H56" t="n">
+        <v>126</v>
+      </c>
+      <c r="I56" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6624,7 +6735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8677,6 +8788,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45842.43524305556</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x00,0x7D</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>130</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H56" t="n">
+        <v>125</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2519,6 +2519,43 @@
         <v>352</v>
       </c>
       <c r="I56" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45843.43393518519</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x01,0x5C</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>380</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H57" t="n">
+        <v>348</v>
+      </c>
+      <c r="I57" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2533,7 +2570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4620,6 +4657,43 @@
         <v>352</v>
       </c>
       <c r="I56" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45843.43393518519</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>380</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H57" t="n">
+        <v>352</v>
+      </c>
+      <c r="I57" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4634,7 +4708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6721,6 +6795,43 @@
         <v>126</v>
       </c>
       <c r="I56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45843.43393518519</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>130</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H57" t="n">
+        <v>126</v>
+      </c>
+      <c r="I57" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6735,7 +6846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8825,6 +8936,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45843.43393518519</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x00,0x7D</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>130</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H57" t="n">
+        <v>125</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2556,6 +2556,43 @@
         <v>348</v>
       </c>
       <c r="I57" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45844.43310185185</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x01,0x5C</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>380</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H58" t="n">
+        <v>348</v>
+      </c>
+      <c r="I58" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2570,7 +2607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4694,6 +4731,43 @@
         <v>352</v>
       </c>
       <c r="I57" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45844.43310185185</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>380</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H58" t="n">
+        <v>352</v>
+      </c>
+      <c r="I58" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4708,7 +4782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6832,6 +6906,43 @@
         <v>126</v>
       </c>
       <c r="I57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45844.43310185185</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>130</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H58" t="n">
+        <v>126</v>
+      </c>
+      <c r="I58" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6846,7 +6957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8973,6 +9084,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45844.43310185185</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x00,0x7D</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>130</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H58" t="n">
+        <v>125</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2593,6 +2593,43 @@
         <v>348</v>
       </c>
       <c r="I58" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45845.43280092593</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x5C</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>380</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>348</v>
+      </c>
+      <c r="I59" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2607,7 +2644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4768,6 +4805,43 @@
         <v>352</v>
       </c>
       <c r="I58" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45845.43280092593</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>380</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>352</v>
+      </c>
+      <c r="I59" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4782,7 +4856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6943,6 +7017,43 @@
         <v>126</v>
       </c>
       <c r="I58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45845.43280092593</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>130</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>126</v>
+      </c>
+      <c r="I59" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6957,7 +7068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9121,6 +9232,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45845.43280092593</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x00,0x7D</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>130</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>125</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2630,6 +2630,43 @@
         <v>348</v>
       </c>
       <c r="I59" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45846.43634259259</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x5C</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>380</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>348</v>
+      </c>
+      <c r="I60" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2644,7 +2681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4842,6 +4879,43 @@
         <v>352</v>
       </c>
       <c r="I59" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45846.43634259259</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x5C</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>380</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>348</v>
+      </c>
+      <c r="I60" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4856,7 +4930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7054,6 +7128,43 @@
         <v>126</v>
       </c>
       <c r="I59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45846.43634259259</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x00,0x7E</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>130</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>126</v>
+      </c>
+      <c r="I60" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7068,7 +7179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9269,6 +9380,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45846.43634259259</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x00,0x7D</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>130</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>125</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2667,6 +2667,43 @@
         <v>348</v>
       </c>
       <c r="I60" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45847.43748842592</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x5C</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>380</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>348</v>
+      </c>
+      <c r="I61" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2681,7 +2718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4916,6 +4953,43 @@
         <v>348</v>
       </c>
       <c r="I60" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45847.43748842592</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x5C</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>380</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>348</v>
+      </c>
+      <c r="I61" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4930,7 +5004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7165,6 +7239,43 @@
         <v>126</v>
       </c>
       <c r="I60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45847.43748842592</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x00,0x7D</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>130</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>125</v>
+      </c>
+      <c r="I61" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7179,7 +7290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9417,6 +9528,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45847.43748842592</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x00,0x7D</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>130</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>125</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2704,6 +2704,117 @@
         <v>348</v>
       </c>
       <c r="I61" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45848.43368055556</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>380</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>344</v>
+      </c>
+      <c r="I62" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45849.43524305556</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>380</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>344</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45850.43918981482</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x54</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>380</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>340</v>
+      </c>
+      <c r="I64" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2718,7 +2829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4990,6 +5101,117 @@
         <v>348</v>
       </c>
       <c r="I61" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45848.43368055556</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>380</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>344</v>
+      </c>
+      <c r="I62" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45849.43524305556</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>380</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>344</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45850.43918981482</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x54</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>380</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>340</v>
+      </c>
+      <c r="I64" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5004,7 +5226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6037,7 +6259,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0x00,0x82</t>
+          <t>0x00,0x81</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6074,7 +6296,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0x00,0x82</t>
+          <t>0x00,0x81</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -6111,7 +6333,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0x00,0x82</t>
+          <t>0x00,0x81</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6148,7 +6370,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0x00,0x82</t>
+          <t>0x00,0x81</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -6185,7 +6407,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0x00,0x82</t>
+          <t>0x00,0x81</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -6222,7 +6444,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0x00,0x82</t>
+          <t>0x00,0x81</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -6259,7 +6481,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0x00,0x80</t>
+          <t>0x00,0x81</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6274,7 +6496,7 @@
         <v>5.68631262647114e+23</v>
       </c>
       <c r="H34" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I34" t="n">
         <v>7</v>
@@ -6740,7 +6962,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0x00,0x7F</t>
+          <t>0x00,0x7E</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -6755,7 +6977,7 @@
         <v>5.68631262647114e+23</v>
       </c>
       <c r="H47" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I47" t="n">
         <v>7</v>
@@ -6777,7 +6999,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0x00,0x7F</t>
+          <t>0x00,0x7E</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -6792,7 +7014,7 @@
         <v>5.68631262647114e+23</v>
       </c>
       <c r="H48" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I48" t="n">
         <v>7</v>
@@ -6814,7 +7036,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0x00,0x7F</t>
+          <t>0x00,0x7E</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -6829,7 +7051,7 @@
         <v>5.68631262647114e+23</v>
       </c>
       <c r="H49" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I49" t="n">
         <v>7</v>
@@ -6851,7 +7073,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0x00,0x7F</t>
+          <t>0x00,0x7E</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -6866,7 +7088,7 @@
         <v>5.68631262647114e+23</v>
       </c>
       <c r="H50" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I50" t="n">
         <v>7</v>
@@ -7073,7 +7295,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0x00,0x7E</t>
+          <t>0x00,0x7D</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -7088,7 +7310,7 @@
         <v>5.68631262647114e+23</v>
       </c>
       <c r="H56" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I56" t="n">
         <v>7</v>
@@ -7110,7 +7332,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0x00,0x7E</t>
+          <t>0x00,0x7D</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -7125,7 +7347,7 @@
         <v>5.68631262647114e+23</v>
       </c>
       <c r="H57" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I57" t="n">
         <v>7</v>
@@ -7147,7 +7369,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0x00,0x7E</t>
+          <t>0x00,0x7D</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -7162,7 +7384,7 @@
         <v>5.68631262647114e+23</v>
       </c>
       <c r="H58" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I58" t="n">
         <v>7</v>
@@ -7184,7 +7406,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0x00,0x7E</t>
+          <t>0x00,0x7D</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -7199,7 +7421,7 @@
         <v>5.68631262647114e+23</v>
       </c>
       <c r="H59" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I59" t="n">
         <v>7</v>
@@ -7221,7 +7443,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0x00,0x7E</t>
+          <t>0x00,0x7D</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7236,7 +7458,7 @@
         <v>5.68631262647114e+23</v>
       </c>
       <c r="H60" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I60" t="n">
         <v>7</v>
@@ -7276,6 +7498,117 @@
         <v>125</v>
       </c>
       <c r="I61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45848.43368055556</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x00,0x7C</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>130</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>124</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45849.43524305556</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x00,0x7C</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>130</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>124</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45850.43918981482</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x00,0x7C</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>130</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>124</v>
+      </c>
+      <c r="I64" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7290,7 +7623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8323,7 +8656,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0x00,0x81</t>
+          <t>0x00,0x82</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -8360,7 +8693,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0x00,0x81</t>
+          <t>0x00,0x82</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8397,7 +8730,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0x00,0x81</t>
+          <t>0x00,0x82</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -8434,7 +8767,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0x00,0x81</t>
+          <t>0x00,0x82</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -8471,7 +8804,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0x00,0x81</t>
+          <t>0x00,0x82</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -8508,7 +8841,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0x00,0x81</t>
+          <t>0x00,0x82</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8545,7 +8878,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0x00,0x81</t>
+          <t>0x00,0x80</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8560,7 +8893,7 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H34" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -9026,7 +9359,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0x00,0x7E</t>
+          <t>0x00,0x7F</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9041,7 +9374,7 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H47" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -9063,7 +9396,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0x00,0x7E</t>
+          <t>0x00,0x7F</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9078,7 +9411,7 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H48" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -9100,7 +9433,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0x00,0x7E</t>
+          <t>0x00,0x7F</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9115,7 +9448,7 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H49" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -9137,7 +9470,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0x00,0x7E</t>
+          <t>0x00,0x7F</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9152,7 +9485,7 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H50" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -9359,7 +9692,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0x00,0x7D</t>
+          <t>0x00,0x7E</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -9374,7 +9707,7 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H56" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -9396,7 +9729,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0x00,0x7D</t>
+          <t>0x00,0x7E</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -9411,7 +9744,7 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H57" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -9433,7 +9766,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0x00,0x7D</t>
+          <t>0x00,0x7E</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -9448,7 +9781,7 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H58" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -9470,7 +9803,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0x00,0x7D</t>
+          <t>0x00,0x7E</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -9485,7 +9818,7 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H59" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -9507,7 +9840,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0x00,0x7D</t>
+          <t>0x00,0x7E</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -9522,7 +9855,7 @@
         <v>9.85046333984776e+23</v>
       </c>
       <c r="H60" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -9562,6 +9895,117 @@
         <v>125</v>
       </c>
       <c r="I61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45848.43368055556</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x00,0x7C</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>130</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>124</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45849.43524305556</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x00,0x7C</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>130</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>124</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45850.43918981482</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x00,0x7C</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>130</v>
+      </c>
+      <c r="G64" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>124</v>
+      </c>
+      <c r="I64" t="n">
         <v>3</v>
       </c>
     </row>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2815,6 +2815,43 @@
         <v>340</v>
       </c>
       <c r="I64" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45851.43619212963</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>380</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>340</v>
+      </c>
+      <c r="I65" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2829,7 +2866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5212,6 +5249,43 @@
         <v>340</v>
       </c>
       <c r="I64" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45851.43619212963</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>380</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>340</v>
+      </c>
+      <c r="I65" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5226,7 +5300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7609,6 +7683,43 @@
         <v>124</v>
       </c>
       <c r="I64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45851.43619212963</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x00,0x7C</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>130</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>124</v>
+      </c>
+      <c r="I65" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7623,7 +7734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10009,6 +10120,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45851.43619212963</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x00,0x7B</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>130</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>123</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2852,6 +2852,43 @@
         <v>340</v>
       </c>
       <c r="I65" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45852.43335648148</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>380</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>336</v>
+      </c>
+      <c r="I66" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2866,7 +2903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5286,6 +5323,43 @@
         <v>340</v>
       </c>
       <c r="I65" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45852.43335648148</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>380</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>336</v>
+      </c>
+      <c r="I66" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5300,7 +5374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7720,6 +7794,43 @@
         <v>124</v>
       </c>
       <c r="I65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45852.43335648148</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x00,0x7B</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>130</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>123</v>
+      </c>
+      <c r="I66" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7734,7 +7845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10157,6 +10268,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45852.43335648148</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x00,0x7B</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>130</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>123</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2889,6 +2889,43 @@
         <v>336</v>
       </c>
       <c r="I66" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45853.43400462963</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>380</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>336</v>
+      </c>
+      <c r="I67" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2903,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5360,6 +5397,43 @@
         <v>336</v>
       </c>
       <c r="I66" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45853.43400462963</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>380</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>336</v>
+      </c>
+      <c r="I67" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5374,7 +5448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7831,6 +7905,43 @@
         <v>123</v>
       </c>
       <c r="I66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45853.43400462963</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x00,0x7B</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>130</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>123</v>
+      </c>
+      <c r="I67" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7845,7 +7956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10305,6 +10416,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45853.43400462963</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x00,0x7B</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>130</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>123</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2926,6 +2926,43 @@
         <v>336</v>
       </c>
       <c r="I67" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45854.43328703703</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x4C</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>380</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>332</v>
+      </c>
+      <c r="I68" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2940,7 +2977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5434,6 +5471,43 @@
         <v>336</v>
       </c>
       <c r="I67" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45854.43328703703</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>380</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>336</v>
+      </c>
+      <c r="I68" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5448,7 +5522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7942,6 +8016,43 @@
         <v>123</v>
       </c>
       <c r="I67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45854.43328703703</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x00,0x7B</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>130</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>123</v>
+      </c>
+      <c r="I68" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7956,7 +8067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10453,6 +10564,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45854.43328703703</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x00,0x7B</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>130</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>123</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2963,6 +2963,43 @@
         <v>332</v>
       </c>
       <c r="I68" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45855.43355324074</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x4C</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>380</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>332</v>
+      </c>
+      <c r="I69" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2977,7 +3014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5508,6 +5545,43 @@
         <v>336</v>
       </c>
       <c r="I68" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45855.43355324074</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x4C</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>380</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>332</v>
+      </c>
+      <c r="I69" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5522,7 +5596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8053,6 +8127,43 @@
         <v>123</v>
       </c>
       <c r="I68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45855.43355324074</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x00,0x7A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>130</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>122</v>
+      </c>
+      <c r="I69" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8067,7 +8178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10601,6 +10712,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45855.43355324074</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x00,0x7A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>130</v>
+      </c>
+      <c r="G69" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>122</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3000,6 +3000,43 @@
         <v>332</v>
       </c>
       <c r="I69" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45856.43450231481</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x48</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>380</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>328</v>
+      </c>
+      <c r="I70" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3014,7 +3051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5582,6 +5619,43 @@
         <v>332</v>
       </c>
       <c r="I69" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45856.43450231481</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x4C</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>380</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>332</v>
+      </c>
+      <c r="I70" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5596,7 +5670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8164,6 +8238,43 @@
         <v>122</v>
       </c>
       <c r="I69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45856.43450231481</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x00,0x7A</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>130</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>122</v>
+      </c>
+      <c r="I70" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8178,7 +8289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10749,6 +10860,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45856.43450231481</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x00,0x7A</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>130</v>
+      </c>
+      <c r="G70" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>122</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3037,6 +3037,43 @@
         <v>328</v>
       </c>
       <c r="I70" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45857.43685185185</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>380</v>
+      </c>
+      <c r="G71" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>328</v>
+      </c>
+      <c r="I71" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3051,7 +3088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5656,6 +5693,43 @@
         <v>332</v>
       </c>
       <c r="I70" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45857.43685185185</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>380</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>328</v>
+      </c>
+      <c r="I71" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5670,7 +5744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8275,6 +8349,43 @@
         <v>122</v>
       </c>
       <c r="I70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45857.43685185185</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x00,0x7A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>130</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>122</v>
+      </c>
+      <c r="I71" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8289,7 +8400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10897,6 +11008,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45857.43685185185</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x00,0x7A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>130</v>
+      </c>
+      <c r="G71" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>122</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3074,6 +3074,43 @@
         <v>328</v>
       </c>
       <c r="I71" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45858.43453703704</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x48</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>380</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>328</v>
+      </c>
+      <c r="I72" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3088,7 +3125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5730,6 +5767,43 @@
         <v>328</v>
       </c>
       <c r="I71" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45858.43453703704</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x48</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>380</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>328</v>
+      </c>
+      <c r="I72" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5744,7 +5818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8386,6 +8460,43 @@
         <v>122</v>
       </c>
       <c r="I71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45858.43453703704</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x00,0x7A</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>130</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>122</v>
+      </c>
+      <c r="I72" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8400,7 +8511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11045,6 +11156,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45858.43453703704</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x00,0x7A</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>130</v>
+      </c>
+      <c r="G72" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>122</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3111,6 +3111,43 @@
         <v>328</v>
       </c>
       <c r="I72" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45859.43543981481</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>380</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>324</v>
+      </c>
+      <c r="I73" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3125,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5804,6 +5841,43 @@
         <v>328</v>
       </c>
       <c r="I72" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45859.43543981481</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>380</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>328</v>
+      </c>
+      <c r="I73" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5818,7 +5892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8497,6 +8571,43 @@
         <v>122</v>
       </c>
       <c r="I72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45859.43543981481</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x00,0x79</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>130</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>121</v>
+      </c>
+      <c r="I73" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8511,7 +8622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11193,6 +11304,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45859.43543981481</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x00,0x79</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>130</v>
+      </c>
+      <c r="G73" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>121</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3148,6 +3148,43 @@
         <v>324</v>
       </c>
       <c r="I73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45860.43701388889</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x44</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>380</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>324</v>
+      </c>
+      <c r="I74" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3162,7 +3199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5878,6 +5915,43 @@
         <v>328</v>
       </c>
       <c r="I73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45860.43701388889</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x44</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>380</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>324</v>
+      </c>
+      <c r="I74" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5892,7 +5966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8608,6 +8682,43 @@
         <v>121</v>
       </c>
       <c r="I73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45860.43701388889</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x00,0x79</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>130</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>121</v>
+      </c>
+      <c r="I74" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8622,7 +8733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11341,6 +11452,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45860.43701388889</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x00,0x79</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>130</v>
+      </c>
+      <c r="G74" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>121</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3185,6 +3185,43 @@
         <v>324</v>
       </c>
       <c r="I74" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45861.43658564815</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>380</v>
+      </c>
+      <c r="G75" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>324</v>
+      </c>
+      <c r="I75" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3199,7 +3236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5952,6 +5989,43 @@
         <v>324</v>
       </c>
       <c r="I74" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45861.43658564815</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>380</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>324</v>
+      </c>
+      <c r="I75" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5966,7 +6040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8719,6 +8793,43 @@
         <v>121</v>
       </c>
       <c r="I74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45861.43658564815</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x00,0x79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>130</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>121</v>
+      </c>
+      <c r="I75" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8733,7 +8844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11489,6 +11600,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45861.43658564815</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x00,0x79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>130</v>
+      </c>
+      <c r="G75" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>121</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3222,6 +3222,43 @@
         <v>324</v>
       </c>
       <c r="I75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45862.43560185185</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x40</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>380</v>
+      </c>
+      <c r="G76" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>320</v>
+      </c>
+      <c r="I76" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3236,7 +3273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6026,6 +6063,43 @@
         <v>324</v>
       </c>
       <c r="I75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45862.43560185185</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x40</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>380</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>320</v>
+      </c>
+      <c r="I76" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6040,7 +6114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8830,6 +8904,43 @@
         <v>121</v>
       </c>
       <c r="I75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45862.43560185185</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x00,0x79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>130</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>121</v>
+      </c>
+      <c r="I76" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8844,7 +8955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11637,6 +11748,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45862.43560185185</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x00,0x79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>130</v>
+      </c>
+      <c r="G76" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>121</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3259,6 +3259,43 @@
         <v>320</v>
       </c>
       <c r="I76" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45863.43665509259</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x40</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>380</v>
+      </c>
+      <c r="G77" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>320</v>
+      </c>
+      <c r="I77" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3273,7 +3310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6100,6 +6137,43 @@
         <v>320</v>
       </c>
       <c r="I76" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45863.43665509259</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x40</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>380</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>320</v>
+      </c>
+      <c r="I77" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6114,7 +6188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8941,6 +9015,43 @@
         <v>121</v>
       </c>
       <c r="I76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45863.43665509259</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x00,0x78</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>130</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>120</v>
+      </c>
+      <c r="I77" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8955,7 +9066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11785,6 +11896,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45863.43665509259</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x00,0x78</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>130</v>
+      </c>
+      <c r="G77" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>120</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3296,6 +3296,43 @@
         <v>320</v>
       </c>
       <c r="I77" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45864.43591435185</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x3C</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>380</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>316</v>
+      </c>
+      <c r="I78" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3310,7 +3347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6174,6 +6211,43 @@
         <v>320</v>
       </c>
       <c r="I77" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45864.43591435185</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>380</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>320</v>
+      </c>
+      <c r="I78" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6188,7 +6262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9052,6 +9126,43 @@
         <v>120</v>
       </c>
       <c r="I77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45864.43591435185</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x00,0x78</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>130</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>120</v>
+      </c>
+      <c r="I78" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9066,7 +9177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11933,6 +12044,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45864.43591435185</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x00,0x78</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>130</v>
+      </c>
+      <c r="G78" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>120</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,6 +3333,43 @@
         <v>316</v>
       </c>
       <c r="I78" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45865.43526620371</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x3C</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>380</v>
+      </c>
+      <c r="G79" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>316</v>
+      </c>
+      <c r="I79" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3347,7 +3384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6248,6 +6285,43 @@
         <v>320</v>
       </c>
       <c r="I78" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45865.43526620371</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x3C</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>380</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>316</v>
+      </c>
+      <c r="I79" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6262,7 +6336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9163,6 +9237,43 @@
         <v>120</v>
       </c>
       <c r="I78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45865.43526620371</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x00,0x78</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>130</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>120</v>
+      </c>
+      <c r="I79" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9177,7 +9288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12081,6 +12192,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45865.43526620371</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x00,0x77</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>130</v>
+      </c>
+      <c r="G79" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>119</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3370,6 +3370,43 @@
         <v>316</v>
       </c>
       <c r="I79" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45866.43819444445</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x3C</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>380</v>
+      </c>
+      <c r="G80" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>316</v>
+      </c>
+      <c r="I80" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3384,7 +3421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6322,6 +6359,43 @@
         <v>316</v>
       </c>
       <c r="I79" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45866.43819444445</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x3C</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>380</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>316</v>
+      </c>
+      <c r="I80" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6336,7 +6410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9274,6 +9348,43 @@
         <v>120</v>
       </c>
       <c r="I79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45866.43819444445</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x00,0x78</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>130</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>120</v>
+      </c>
+      <c r="I80" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9288,7 +9399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12229,6 +12340,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45866.43819444445</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x00,0x77</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>130</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>119</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3407,6 +3407,43 @@
         <v>316</v>
       </c>
       <c r="I80" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45867.43696759259</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>380</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>312</v>
+      </c>
+      <c r="I81" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3421,7 +3458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6396,6 +6433,43 @@
         <v>316</v>
       </c>
       <c r="I80" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45867.43696759259</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x3C</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>380</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>316</v>
+      </c>
+      <c r="I81" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6410,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9385,6 +9459,43 @@
         <v>120</v>
       </c>
       <c r="I80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45867.43696759259</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x00,0x78</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>130</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>120</v>
+      </c>
+      <c r="I81" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9399,7 +9510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12377,6 +12488,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45867.43696759259</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x00,0x77</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>130</v>
+      </c>
+      <c r="G81" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>119</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3444,6 +3444,43 @@
         <v>312</v>
       </c>
       <c r="I81" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45868.43920138889</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>380</v>
+      </c>
+      <c r="G82" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>312</v>
+      </c>
+      <c r="I82" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3458,7 +3495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6470,6 +6507,43 @@
         <v>316</v>
       </c>
       <c r="I81" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45868.43920138889</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x3C</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>380</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>316</v>
+      </c>
+      <c r="I82" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6484,7 +6558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9496,6 +9570,43 @@
         <v>120</v>
       </c>
       <c r="I81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45868.43920138889</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x00,0x78</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>130</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>120</v>
+      </c>
+      <c r="I82" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9510,7 +9621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12525,6 +12636,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45868.43920138889</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>130</v>
+      </c>
+      <c r="G82" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>118</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3481,6 +3481,43 @@
         <v>312</v>
       </c>
       <c r="I82" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45869.43313657407</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x34</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>380</v>
+      </c>
+      <c r="G83" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>308</v>
+      </c>
+      <c r="I83" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3495,7 +3532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6544,6 +6581,43 @@
         <v>316</v>
       </c>
       <c r="I82" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45869.43313657407</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x38</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>380</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>312</v>
+      </c>
+      <c r="I83" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6558,7 +6632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9607,6 +9681,43 @@
         <v>120</v>
       </c>
       <c r="I82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45869.43313657407</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x00,0x77</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>130</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>119</v>
+      </c>
+      <c r="I83" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9621,7 +9732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12673,6 +12784,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45869.43313657407</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>130</v>
+      </c>
+      <c r="G83" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>118</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3518,6 +3518,43 @@
         <v>308</v>
       </c>
       <c r="I83" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45870.43944444445</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x34</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>380</v>
+      </c>
+      <c r="G84" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>308</v>
+      </c>
+      <c r="I84" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3532,7 +3569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6618,6 +6655,43 @@
         <v>312</v>
       </c>
       <c r="I83" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45870.43944444445</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x38</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>380</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>312</v>
+      </c>
+      <c r="I84" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6632,7 +6706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9718,6 +9792,43 @@
         <v>119</v>
       </c>
       <c r="I83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45870.43944444445</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x00,0x77</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>130</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>119</v>
+      </c>
+      <c r="I84" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9732,7 +9843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12821,6 +12932,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45870.43944444445</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>130</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>118</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3555,6 +3555,43 @@
         <v>308</v>
       </c>
       <c r="I84" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45871.43392361111</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x34</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>380</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>308</v>
+      </c>
+      <c r="I85" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3569,7 +3606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6692,6 +6729,43 @@
         <v>312</v>
       </c>
       <c r="I84" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45871.43392361111</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x38</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>380</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>312</v>
+      </c>
+      <c r="I85" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6706,7 +6780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9829,6 +9903,43 @@
         <v>119</v>
       </c>
       <c r="I84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45871.43392361111</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x00,0x77</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>130</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>119</v>
+      </c>
+      <c r="I85" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9843,7 +9954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12969,6 +13080,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45871.43392361111</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x00,0x75</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>130</v>
+      </c>
+      <c r="G85" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>117</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,6 +3592,43 @@
         <v>308</v>
       </c>
       <c r="I85" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45872.43554398148</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x34</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>380</v>
+      </c>
+      <c r="G86" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>308</v>
+      </c>
+      <c r="I86" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3606,7 +3643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6766,6 +6803,43 @@
         <v>312</v>
       </c>
       <c r="I85" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45872.43554398148</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x38</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>380</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>312</v>
+      </c>
+      <c r="I86" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6780,7 +6854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9940,6 +10014,43 @@
         <v>119</v>
       </c>
       <c r="I85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45872.43554398148</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x00,0x77</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>130</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>119</v>
+      </c>
+      <c r="I86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9954,7 +10065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13117,6 +13228,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45872.43554398148</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x00,0x75</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>130</v>
+      </c>
+      <c r="G86" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>117</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3629,6 +3629,43 @@
         <v>308</v>
       </c>
       <c r="I86" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45873.43682870371</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x34</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>380</v>
+      </c>
+      <c r="G87" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>308</v>
+      </c>
+      <c r="I87" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3643,7 +3680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6840,6 +6877,43 @@
         <v>312</v>
       </c>
       <c r="I86" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45873.43682870371</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x34</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>380</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>308</v>
+      </c>
+      <c r="I87" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6854,7 +6928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10051,6 +10125,43 @@
         <v>119</v>
       </c>
       <c r="I86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45873.43682870371</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x00,0x77</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>130</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>119</v>
+      </c>
+      <c r="I87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10065,7 +10176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13265,6 +13376,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45873.43682870371</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x00,0x75</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>130</v>
+      </c>
+      <c r="G87" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>117</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3666,6 +3666,43 @@
         <v>308</v>
       </c>
       <c r="I87" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45874.43753472222</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>380</v>
+      </c>
+      <c r="G88" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>304</v>
+      </c>
+      <c r="I88" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3680,7 +3717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6914,6 +6951,43 @@
         <v>308</v>
       </c>
       <c r="I87" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45874.43753472222</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x34</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>380</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>308</v>
+      </c>
+      <c r="I88" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6928,7 +7002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10162,6 +10236,43 @@
         <v>119</v>
       </c>
       <c r="I87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45874.43753472222</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>130</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>118</v>
+      </c>
+      <c r="I88" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10176,7 +10287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13413,6 +13524,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45874.43753472222</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x00,0x75</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>130</v>
+      </c>
+      <c r="G88" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>117</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3703,6 +3703,43 @@
         <v>304</v>
       </c>
       <c r="I88" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45875.43287037037</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>380</v>
+      </c>
+      <c r="G89" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>304</v>
+      </c>
+      <c r="I89" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3717,7 +3754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6988,6 +7025,43 @@
         <v>308</v>
       </c>
       <c r="I88" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45875.43287037037</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x34</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>380</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>308</v>
+      </c>
+      <c r="I89" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7002,7 +7076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10273,6 +10347,43 @@
         <v>118</v>
       </c>
       <c r="I88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45875.43287037037</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>130</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>118</v>
+      </c>
+      <c r="I89" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10287,7 +10398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13561,6 +13672,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45875.43287037037</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x00,0x75</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>130</v>
+      </c>
+      <c r="G89" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>117</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3740,6 +3740,43 @@
         <v>304</v>
       </c>
       <c r="I89" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45876.43542824074</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>380</v>
+      </c>
+      <c r="G90" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>304</v>
+      </c>
+      <c r="I90" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3754,7 +3791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7062,6 +7099,43 @@
         <v>308</v>
       </c>
       <c r="I89" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45876.43542824074</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x34</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>380</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>308</v>
+      </c>
+      <c r="I90" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7076,7 +7150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10384,6 +10458,43 @@
         <v>118</v>
       </c>
       <c r="I89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45876.43542824074</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>130</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>118</v>
+      </c>
+      <c r="I90" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10398,7 +10509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13709,6 +13820,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45876.43542824074</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x00,0x75</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>130</v>
+      </c>
+      <c r="G90" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>117</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3777,6 +3777,43 @@
         <v>304</v>
       </c>
       <c r="I90" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45877.43872685185</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x2C</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>380</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>300</v>
+      </c>
+      <c r="I91" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3791,7 +3828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7136,6 +7173,43 @@
         <v>308</v>
       </c>
       <c r="I90" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45877.43872685185</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x34</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>380</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>308</v>
+      </c>
+      <c r="I91" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7150,7 +7224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10495,6 +10569,43 @@
         <v>118</v>
       </c>
       <c r="I90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45877.43872685185</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>130</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>118</v>
+      </c>
+      <c r="I91" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10509,7 +10620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13857,6 +13968,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45877.43872685185</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x00,0x75</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>130</v>
+      </c>
+      <c r="G91" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>117</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3814,6 +3814,43 @@
         <v>300</v>
       </c>
       <c r="I91" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45878.43391203704</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x28</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>380</v>
+      </c>
+      <c r="G92" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>296</v>
+      </c>
+      <c r="I92" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3828,7 +3865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7210,6 +7247,43 @@
         <v>308</v>
       </c>
       <c r="I91" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45878.43391203704</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x30</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>380</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>304</v>
+      </c>
+      <c r="I92" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7224,7 +7298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10606,6 +10680,43 @@
         <v>118</v>
       </c>
       <c r="I91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45878.43391203704</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>130</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>118</v>
+      </c>
+      <c r="I92" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10620,7 +10731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14005,6 +14116,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45878.43391203704</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>130</v>
+      </c>
+      <c r="G92" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>116</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3851,6 +3851,43 @@
         <v>296</v>
       </c>
       <c r="I92" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45879.43318287037</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>380</v>
+      </c>
+      <c r="G93" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>296</v>
+      </c>
+      <c r="I93" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3865,7 +3902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7284,6 +7321,43 @@
         <v>304</v>
       </c>
       <c r="I92" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45879.43318287037</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x2C</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>380</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>300</v>
+      </c>
+      <c r="I93" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7298,7 +7372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10717,6 +10791,43 @@
         <v>118</v>
       </c>
       <c r="I92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45879.43318287037</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>130</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>118</v>
+      </c>
+      <c r="I93" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10731,7 +10842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14153,6 +14264,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45879.43318287037</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>130</v>
+      </c>
+      <c r="G93" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>116</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3888,6 +3888,43 @@
         <v>296</v>
       </c>
       <c r="I93" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45880.43690972222</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x28</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>380</v>
+      </c>
+      <c r="G94" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>296</v>
+      </c>
+      <c r="I94" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3902,7 +3939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7358,6 +7395,43 @@
         <v>300</v>
       </c>
       <c r="I93" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45880.43690972222</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x2C</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>380</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>300</v>
+      </c>
+      <c r="I94" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7372,7 +7446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10828,6 +10902,43 @@
         <v>118</v>
       </c>
       <c r="I93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45880.43690972222</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>130</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>118</v>
+      </c>
+      <c r="I94" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10842,7 +10953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14301,6 +14412,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45880.43690972222</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>130</v>
+      </c>
+      <c r="G94" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>116</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3925,6 +3925,43 @@
         <v>296</v>
       </c>
       <c r="I94" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45881.43618055555</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0x01,0x28</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>380</v>
+      </c>
+      <c r="G95" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H95" t="n">
+        <v>296</v>
+      </c>
+      <c r="I95" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3939,7 +3976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7432,6 +7469,43 @@
         <v>300</v>
       </c>
       <c r="I94" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45881.43618055555</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0x01,0x2C</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>380</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H95" t="n">
+        <v>300</v>
+      </c>
+      <c r="I95" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7446,7 +7520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10939,6 +11013,43 @@
         <v>118</v>
       </c>
       <c r="I94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45881.43618055555</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0x00,0x76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>130</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H95" t="n">
+        <v>118</v>
+      </c>
+      <c r="I95" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10953,7 +11064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14449,6 +14560,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45881.43618055555</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>130</v>
+      </c>
+      <c r="G95" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H95" t="n">
+        <v>116</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3962,6 +3962,43 @@
         <v>296</v>
       </c>
       <c r="I95" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45882.43866898148</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0x01,0x24</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>380</v>
+      </c>
+      <c r="G96" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H96" t="n">
+        <v>292</v>
+      </c>
+      <c r="I96" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3976,7 +4013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7506,6 +7543,43 @@
         <v>300</v>
       </c>
       <c r="I95" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45882.43866898148</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0x01,0x2C</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>380</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H96" t="n">
+        <v>300</v>
+      </c>
+      <c r="I96" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7520,7 +7594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11050,6 +11124,43 @@
         <v>118</v>
       </c>
       <c r="I95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45882.43866898148</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0x00,0x75</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>130</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H96" t="n">
+        <v>117</v>
+      </c>
+      <c r="I96" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11064,7 +11175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14597,6 +14708,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45882.43866898148</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>130</v>
+      </c>
+      <c r="G96" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H96" t="n">
+        <v>116</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3999,6 +3999,43 @@
         <v>292</v>
       </c>
       <c r="I96" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45883.43665509259</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0x01,0x24</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>380</v>
+      </c>
+      <c r="G97" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H97" t="n">
+        <v>292</v>
+      </c>
+      <c r="I97" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4013,7 +4050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7580,6 +7617,43 @@
         <v>300</v>
       </c>
       <c r="I96" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45883.43665509259</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0x01,0x28</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>380</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H97" t="n">
+        <v>296</v>
+      </c>
+      <c r="I97" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7594,7 +7668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11161,6 +11235,43 @@
         <v>117</v>
       </c>
       <c r="I96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45883.43665509259</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0x00,0x75</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>130</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H97" t="n">
+        <v>117</v>
+      </c>
+      <c r="I97" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11175,7 +11286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14745,6 +14856,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45883.43665509259</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>130</v>
+      </c>
+      <c r="G97" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H97" t="n">
+        <v>116</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4036,6 +4036,43 @@
         <v>292</v>
       </c>
       <c r="I97" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45884.43268518519</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0x01,0x24</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>380</v>
+      </c>
+      <c r="G98" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H98" t="n">
+        <v>292</v>
+      </c>
+      <c r="I98" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4050,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7654,6 +7691,43 @@
         <v>296</v>
       </c>
       <c r="I97" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45884.43268518519</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0x01,0x28</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>380</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H98" t="n">
+        <v>296</v>
+      </c>
+      <c r="I98" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7668,7 +7742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11272,6 +11346,43 @@
         <v>117</v>
       </c>
       <c r="I97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45884.43268518519</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>130</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H98" t="n">
+        <v>116</v>
+      </c>
+      <c r="I98" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11286,7 +11397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14893,6 +15004,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45884.43268518519</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>130</v>
+      </c>
+      <c r="G98" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H98" t="n">
+        <v>116</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4073,6 +4073,43 @@
         <v>292</v>
       </c>
       <c r="I98" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45885.43790509259</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0x01,0x24</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>380</v>
+      </c>
+      <c r="G99" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H99" t="n">
+        <v>292</v>
+      </c>
+      <c r="I99" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4087,7 +4124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7728,6 +7765,43 @@
         <v>296</v>
       </c>
       <c r="I98" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45885.43790509259</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0x01,0x28</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>380</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H99" t="n">
+        <v>296</v>
+      </c>
+      <c r="I99" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7742,7 +7816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11383,6 +11457,43 @@
         <v>116</v>
       </c>
       <c r="I98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45885.43790509259</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>130</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H99" t="n">
+        <v>116</v>
+      </c>
+      <c r="I99" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11397,7 +11508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15041,6 +15152,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45885.43790509259</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0x00,0x73</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>130</v>
+      </c>
+      <c r="G99" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H99" t="n">
+        <v>115</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4110,6 +4110,43 @@
         <v>292</v>
       </c>
       <c r="I99" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45886.43649305555</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0x01,0x24</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>380</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H100" t="n">
+        <v>292</v>
+      </c>
+      <c r="I100" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4124,7 +4161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7802,6 +7839,43 @@
         <v>296</v>
       </c>
       <c r="I99" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45886.43649305555</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0x01,0x28</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>380</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H100" t="n">
+        <v>296</v>
+      </c>
+      <c r="I100" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7816,7 +7890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11494,6 +11568,43 @@
         <v>116</v>
       </c>
       <c r="I99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45886.43649305555</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>130</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H100" t="n">
+        <v>116</v>
+      </c>
+      <c r="I100" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11508,7 +11619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15189,6 +15300,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45886.43649305555</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>130</v>
+      </c>
+      <c r="G100" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H100" t="n">
+        <v>114</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4147,6 +4147,43 @@
         <v>292</v>
       </c>
       <c r="I100" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45887.43271990741</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0x01,0x20</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>380</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H101" t="n">
+        <v>288</v>
+      </c>
+      <c r="I101" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4161,7 +4198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7876,6 +7913,43 @@
         <v>296</v>
       </c>
       <c r="I100" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45887.43271990741</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0x01,0x24</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>380</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H101" t="n">
+        <v>292</v>
+      </c>
+      <c r="I101" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7890,7 +7964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11605,6 +11679,43 @@
         <v>116</v>
       </c>
       <c r="I100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45887.43271990741</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>130</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H101" t="n">
+        <v>116</v>
+      </c>
+      <c r="I101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11619,7 +11730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15337,6 +15448,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45887.43271990741</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>130</v>
+      </c>
+      <c r="G101" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H101" t="n">
+        <v>114</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4184,6 +4184,43 @@
         <v>288</v>
       </c>
       <c r="I101" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45888.43288194444</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0x01,0x20</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>380</v>
+      </c>
+      <c r="G102" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H102" t="n">
+        <v>288</v>
+      </c>
+      <c r="I102" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4198,7 +4235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7950,6 +7987,43 @@
         <v>292</v>
       </c>
       <c r="I101" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45888.43288194444</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0x01,0x24</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>380</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H102" t="n">
+        <v>292</v>
+      </c>
+      <c r="I102" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7964,7 +8038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11716,6 +11790,43 @@
         <v>116</v>
       </c>
       <c r="I101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45888.43288194444</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0x00,0x74</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>130</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H102" t="n">
+        <v>116</v>
+      </c>
+      <c r="I102" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11730,7 +11841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15485,6 +15596,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45888.43288194444</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>130</v>
+      </c>
+      <c r="G102" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H102" t="n">
+        <v>114</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4221,6 +4221,43 @@
         <v>288</v>
       </c>
       <c r="I102" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45889.43734953704</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0x01,0x20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>380</v>
+      </c>
+      <c r="G103" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H103" t="n">
+        <v>288</v>
+      </c>
+      <c r="I103" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4235,7 +4272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8024,6 +8061,43 @@
         <v>292</v>
       </c>
       <c r="I102" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45889.43734953704</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0x01,0x24</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>380</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H103" t="n">
+        <v>292</v>
+      </c>
+      <c r="I103" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8038,7 +8112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11827,6 +11901,43 @@
         <v>116</v>
       </c>
       <c r="I102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45889.43734953704</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0x00,0x73</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>130</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H103" t="n">
+        <v>115</v>
+      </c>
+      <c r="I103" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11841,7 +11952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15633,6 +15744,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45889.43734953704</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>130</v>
+      </c>
+      <c r="G103" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H103" t="n">
+        <v>114</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4258,6 +4258,43 @@
         <v>288</v>
       </c>
       <c r="I103" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45890.43471064815</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0x01,0x20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>380</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H104" t="n">
+        <v>288</v>
+      </c>
+      <c r="I104" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4272,7 +4309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8098,6 +8135,43 @@
         <v>292</v>
       </c>
       <c r="I103" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45890.43471064815</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0x01,0x24</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>380</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H104" t="n">
+        <v>292</v>
+      </c>
+      <c r="I104" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8112,7 +8186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11938,6 +12012,43 @@
         <v>115</v>
       </c>
       <c r="I103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45890.43471064815</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0x00,0x73</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>130</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H104" t="n">
+        <v>115</v>
+      </c>
+      <c r="I104" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11952,7 +12063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15781,6 +15892,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45890.43471064815</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>130</v>
+      </c>
+      <c r="G104" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H104" t="n">
+        <v>114</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4295,6 +4295,43 @@
         <v>288</v>
       </c>
       <c r="I104" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45891.43644675926</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0x01,0x20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>380</v>
+      </c>
+      <c r="G105" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H105" t="n">
+        <v>284</v>
+      </c>
+      <c r="I105" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4309,7 +4346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8172,6 +8209,43 @@
         <v>292</v>
       </c>
       <c r="I104" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45891.43644675926</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0x01,0x24</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>380</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H105" t="n">
+        <v>292</v>
+      </c>
+      <c r="I105" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8186,7 +8260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12049,6 +12123,43 @@
         <v>115</v>
       </c>
       <c r="I104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45891.43644675926</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0x00,0x73</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>130</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H105" t="n">
+        <v>115</v>
+      </c>
+      <c r="I105" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12063,7 +12174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15929,6 +16040,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45891.43644675926</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>130</v>
+      </c>
+      <c r="G105" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H105" t="n">
+        <v>114</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4332,6 +4332,117 @@
         <v>284</v>
       </c>
       <c r="I105" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45892.43943287037</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0x01,0x1C</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>380</v>
+      </c>
+      <c r="G106" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H106" t="n">
+        <v>284</v>
+      </c>
+      <c r="I106" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45893.43509259259</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0x01,0x1C</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>380</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H107" t="n">
+        <v>284</v>
+      </c>
+      <c r="I107" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45894.438125</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0x01,0x1C</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>380</v>
+      </c>
+      <c r="G108" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H108" t="n">
+        <v>284</v>
+      </c>
+      <c r="I108" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4346,7 +4457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8246,6 +8357,117 @@
         <v>292</v>
       </c>
       <c r="I105" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45892.43943287037</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0x01,0x20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>380</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H106" t="n">
+        <v>288</v>
+      </c>
+      <c r="I106" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45893.43509259259</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0x01,0x20</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>380</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H107" t="n">
+        <v>288</v>
+      </c>
+      <c r="I107" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45894.438125</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0x01,0x20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>380</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H108" t="n">
+        <v>288</v>
+      </c>
+      <c r="I108" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8260,7 +8482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12160,6 +12382,117 @@
         <v>115</v>
       </c>
       <c r="I105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45892.43943287037</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0x00,0x73</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>130</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H106" t="n">
+        <v>115</v>
+      </c>
+      <c r="I106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45893.43509259259</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0x00,0x73</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>130</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H107" t="n">
+        <v>115</v>
+      </c>
+      <c r="I107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45894.438125</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0x00,0x73</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>130</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H108" t="n">
+        <v>115</v>
+      </c>
+      <c r="I108" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12174,7 +12507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16077,6 +16410,117 @@
         <v>3</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45892.43943287037</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>130</v>
+      </c>
+      <c r="G106" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H106" t="n">
+        <v>113</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45893.43509259259</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>130</v>
+      </c>
+      <c r="G107" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H107" t="n">
+        <v>113</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45894.438125</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>130</v>
+      </c>
+      <c r="G108" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H108" t="n">
+        <v>113</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4443,6 +4443,43 @@
         <v>284</v>
       </c>
       <c r="I108" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45895.43858796296</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0x01,0x1C</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>380</v>
+      </c>
+      <c r="G109" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H109" t="n">
+        <v>284</v>
+      </c>
+      <c r="I109" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4457,7 +4494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8468,6 +8505,43 @@
         <v>288</v>
       </c>
       <c r="I108" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45895.43858796296</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0x01,0x20</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>380</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H109" t="n">
+        <v>288</v>
+      </c>
+      <c r="I109" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8482,7 +8556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12493,6 +12567,43 @@
         <v>115</v>
       </c>
       <c r="I108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45895.43858796296</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0x00,0x73</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>130</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H109" t="n">
+        <v>115</v>
+      </c>
+      <c r="I109" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12507,7 +12618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16521,6 +16632,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45895.43858796296</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>130</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H109" t="n">
+        <v>113</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,6 +4480,43 @@
         <v>284</v>
       </c>
       <c r="I109" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45896.43300925926</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0x01,0x18</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>380</v>
+      </c>
+      <c r="G110" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H110" t="n">
+        <v>280</v>
+      </c>
+      <c r="I110" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4494,7 +4531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8542,6 +8579,43 @@
         <v>288</v>
       </c>
       <c r="I109" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45896.43300925926</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0x01,0x20</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>380</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H110" t="n">
+        <v>288</v>
+      </c>
+      <c r="I110" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8556,7 +8630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12604,6 +12678,43 @@
         <v>115</v>
       </c>
       <c r="I109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45896.43300925926</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>130</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H110" t="n">
+        <v>114</v>
+      </c>
+      <c r="I110" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12618,7 +12729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16669,6 +16780,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45896.43300925926</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>130</v>
+      </c>
+      <c r="G110" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H110" t="n">
+        <v>113</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4517,6 +4517,43 @@
         <v>280</v>
       </c>
       <c r="I110" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45897.43737268518</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0x01,0x18</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>380</v>
+      </c>
+      <c r="G111" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H111" t="n">
+        <v>280</v>
+      </c>
+      <c r="I111" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4531,7 +4568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8616,6 +8653,43 @@
         <v>288</v>
       </c>
       <c r="I110" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45897.43737268518</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0x01,0x1C</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>380</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H111" t="n">
+        <v>284</v>
+      </c>
+      <c r="I111" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8630,7 +8704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12715,6 +12789,43 @@
         <v>114</v>
       </c>
       <c r="I110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45897.43737268518</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>130</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H111" t="n">
+        <v>114</v>
+      </c>
+      <c r="I111" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12729,7 +12840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16817,6 +16928,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45897.43737268518</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>130</v>
+      </c>
+      <c r="G111" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H111" t="n">
+        <v>113</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4554,6 +4554,43 @@
         <v>280</v>
       </c>
       <c r="I111" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45898.43383101852</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0x01,0x18</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>380</v>
+      </c>
+      <c r="G112" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H112" t="n">
+        <v>280</v>
+      </c>
+      <c r="I112" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4568,7 +4605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8690,6 +8727,43 @@
         <v>284</v>
       </c>
       <c r="I111" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45898.43383101852</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0x01,0x1C</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>380</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H112" t="n">
+        <v>284</v>
+      </c>
+      <c r="I112" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8704,7 +8778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12826,6 +12900,43 @@
         <v>114</v>
       </c>
       <c r="I111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45898.43383101852</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>130</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H112" t="n">
+        <v>114</v>
+      </c>
+      <c r="I112" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12840,7 +12951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16965,6 +17076,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45898.43383101852</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>130</v>
+      </c>
+      <c r="G112" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H112" t="n">
+        <v>113</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4591,6 +4591,43 @@
         <v>280</v>
       </c>
       <c r="I112" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45899.43841435185</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0x01,0x18</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>380</v>
+      </c>
+      <c r="G113" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H113" t="n">
+        <v>280</v>
+      </c>
+      <c r="I113" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4605,7 +4642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8764,6 +8801,43 @@
         <v>284</v>
       </c>
       <c r="I112" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45899.43841435185</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0x01,0x1C</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>380</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H113" t="n">
+        <v>284</v>
+      </c>
+      <c r="I113" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8778,7 +8852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12937,6 +13011,43 @@
         <v>114</v>
       </c>
       <c r="I112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45899.43841435185</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>130</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H113" t="n">
+        <v>114</v>
+      </c>
+      <c r="I113" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12951,7 +13062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17113,6 +17224,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45899.43841435185</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0x00,0x70</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>130</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H113" t="n">
+        <v>112</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4628,6 +4628,43 @@
         <v>280</v>
       </c>
       <c r="I113" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45900.43480324074</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0x01,0x14</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>380</v>
+      </c>
+      <c r="G114" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>276</v>
+      </c>
+      <c r="I114" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4642,7 +4679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8838,6 +8875,43 @@
         <v>284</v>
       </c>
       <c r="I113" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45900.43480324074</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0x01,0x1C</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>380</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>284</v>
+      </c>
+      <c r="I114" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8852,7 +8926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13048,6 +13122,43 @@
         <v>114</v>
       </c>
       <c r="I113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45900.43480324074</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0x00,0x72</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>130</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>114</v>
+      </c>
+      <c r="I114" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13062,7 +13173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17261,6 +17372,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45900.43480324074</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0x00,0x70</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>130</v>
+      </c>
+      <c r="G114" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>112</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4665,6 +4665,43 @@
         <v>276</v>
       </c>
       <c r="I114" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45901.43782407408</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0x01,0x10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>380</v>
+      </c>
+      <c r="G115" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H115" t="n">
+        <v>272</v>
+      </c>
+      <c r="I115" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4679,7 +4716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8912,6 +8949,43 @@
         <v>284</v>
       </c>
       <c r="I114" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45901.43782407408</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0x01,0x18</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>380</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H115" t="n">
+        <v>280</v>
+      </c>
+      <c r="I115" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8926,7 +9000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13159,6 +13233,43 @@
         <v>114</v>
       </c>
       <c r="I114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45901.43782407408</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>130</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H115" t="n">
+        <v>113</v>
+      </c>
+      <c r="I115" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13173,7 +13284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17409,6 +17520,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45901.43782407408</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0x00,0x70</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>130</v>
+      </c>
+      <c r="G115" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H115" t="n">
+        <v>112</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4702,6 +4702,43 @@
         <v>272</v>
       </c>
       <c r="I115" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45902.43356481481</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0x01,0x10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>380</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H116" t="n">
+        <v>272</v>
+      </c>
+      <c r="I116" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4716,7 +4753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8986,6 +9023,43 @@
         <v>280</v>
       </c>
       <c r="I115" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45902.43356481481</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0x01,0x14</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>380</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H116" t="n">
+        <v>276</v>
+      </c>
+      <c r="I116" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9000,7 +9074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13270,6 +13344,43 @@
         <v>113</v>
       </c>
       <c r="I115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45902.43356481481</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>130</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H116" t="n">
+        <v>113</v>
+      </c>
+      <c r="I116" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13284,7 +13395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17557,6 +17668,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45902.43356481481</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0x00,0x70</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>130</v>
+      </c>
+      <c r="G116" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H116" t="n">
+        <v>112</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4739,6 +4739,43 @@
         <v>272</v>
       </c>
       <c r="I116" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45903.43907407407</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0x01,0x10</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>380</v>
+      </c>
+      <c r="G117" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H117" t="n">
+        <v>272</v>
+      </c>
+      <c r="I117" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4753,7 +4790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9060,6 +9097,43 @@
         <v>276</v>
       </c>
       <c r="I116" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45903.43907407407</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0x01,0x14</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>380</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H117" t="n">
+        <v>276</v>
+      </c>
+      <c r="I117" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9074,7 +9148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13381,6 +13455,43 @@
         <v>113</v>
       </c>
       <c r="I116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45903.43907407407</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>130</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H117" t="n">
+        <v>113</v>
+      </c>
+      <c r="I117" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13395,7 +13506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17705,6 +17816,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45903.43907407407</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0x00,0x70</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>130</v>
+      </c>
+      <c r="G117" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H117" t="n">
+        <v>112</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4776,6 +4776,43 @@
         <v>272</v>
       </c>
       <c r="I117" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45904.43587962963</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0x01,0x10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>380</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H118" t="n">
+        <v>272</v>
+      </c>
+      <c r="I118" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4790,7 +4827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9134,6 +9171,43 @@
         <v>276</v>
       </c>
       <c r="I117" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45904.43587962963</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0x01,0x14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>380</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H118" t="n">
+        <v>276</v>
+      </c>
+      <c r="I118" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9148,7 +9222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13492,6 +13566,43 @@
         <v>113</v>
       </c>
       <c r="I117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45904.43587962963</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0x00,0x71</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>130</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H118" t="n">
+        <v>113</v>
+      </c>
+      <c r="I118" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13506,7 +13617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17853,6 +17964,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45904.43587962963</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0x00,0x70</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>130</v>
+      </c>
+      <c r="G118" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H118" t="n">
+        <v>112</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4813,6 +4813,43 @@
         <v>272</v>
       </c>
       <c r="I118" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45905.43466435185</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0x01,0x0C</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>380</v>
+      </c>
+      <c r="G119" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H119" t="n">
+        <v>268</v>
+      </c>
+      <c r="I119" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4827,7 +4864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9208,6 +9245,43 @@
         <v>276</v>
       </c>
       <c r="I118" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45905.43466435185</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0x01,0x14</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>380</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H119" t="n">
+        <v>276</v>
+      </c>
+      <c r="I119" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9222,7 +9296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13603,6 +13677,43 @@
         <v>113</v>
       </c>
       <c r="I118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45905.43466435185</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0x00,0x70</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>130</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H119" t="n">
+        <v>112</v>
+      </c>
+      <c r="I119" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13617,7 +13728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18001,6 +18112,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45905.43466435185</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0x00,0x70</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>130</v>
+      </c>
+      <c r="G119" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H119" t="n">
+        <v>112</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DE2025May_Database_update.xlsx
+++ b/DE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45967.43855324074</v>
+        <v>45967.43369212963</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -7144,6 +7144,302 @@
         <v>204</v>
       </c>
       <c r="I181" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45968.43420138889</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0x00,0xD1</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>380</v>
+      </c>
+      <c r="G182" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H182" t="n">
+        <v>200</v>
+      </c>
+      <c r="I182" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45969.43471064815</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0x00,1xCC</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>380</v>
+      </c>
+      <c r="G183" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H183" t="n">
+        <v>200</v>
+      </c>
+      <c r="I183" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45970.43521990741</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0x00,0xD2</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>380</v>
+      </c>
+      <c r="G184" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H184" t="n">
+        <v>196</v>
+      </c>
+      <c r="I184" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45971.43572916667</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0x00,2xCC</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>380</v>
+      </c>
+      <c r="G185" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H185" t="n">
+        <v>192</v>
+      </c>
+      <c r="I185" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45972.43623842593</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0x00,0xD3</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>380</v>
+      </c>
+      <c r="G186" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H186" t="n">
+        <v>188</v>
+      </c>
+      <c r="I186" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45973.43674768518</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0x00,3xCC</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>380</v>
+      </c>
+      <c r="G187" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H187" t="n">
+        <v>188</v>
+      </c>
+      <c r="I187" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45974.43725694445</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0x00,0xD4</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>380</v>
+      </c>
+      <c r="G188" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H188" t="n">
+        <v>184</v>
+      </c>
+      <c r="I188" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45975.4377662037</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0x00,4xCC</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>380</v>
+      </c>
+      <c r="G189" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H189" t="n">
+        <v>180</v>
+      </c>
+      <c r="I189" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7158,7 +7454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13870,6 +14166,302 @@
         <v>212</v>
       </c>
       <c r="I181" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45968.43420138889</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0x00,0xD0</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>380</v>
+      </c>
+      <c r="G182" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H182" t="n">
+        <v>208</v>
+      </c>
+      <c r="I182" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45969.43471064815</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0x00,0xD4</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>380</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H183" t="n">
+        <v>204</v>
+      </c>
+      <c r="I183" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45970.43521990741</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0x00,0xD8</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>380</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H184" t="n">
+        <v>204</v>
+      </c>
+      <c r="I184" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45971.43572916667</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0x00,0xD12</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>380</v>
+      </c>
+      <c r="G185" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H185" t="n">
+        <v>200</v>
+      </c>
+      <c r="I185" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45972.43623842593</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0x00,0xD16</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>380</v>
+      </c>
+      <c r="G186" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H186" t="n">
+        <v>196</v>
+      </c>
+      <c r="I186" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45973.43674768518</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0x00,0xD20</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>380</v>
+      </c>
+      <c r="G187" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H187" t="n">
+        <v>196</v>
+      </c>
+      <c r="I187" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45974.43725694445</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0x00,0xD24</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>380</v>
+      </c>
+      <c r="G188" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H188" t="n">
+        <v>192</v>
+      </c>
+      <c r="I188" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45975.4377662037</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0x00,0xD28</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>380</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H189" t="n">
+        <v>188</v>
+      </c>
+      <c r="I189" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13884,7 +14476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20596,6 +21188,302 @@
         <v>102</v>
       </c>
       <c r="I181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45968.43420138889</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0x00,0x65</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>130</v>
+      </c>
+      <c r="G182" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H182" t="n">
+        <v>101</v>
+      </c>
+      <c r="I182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45969.43471064815</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0x00,0x64</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>130</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H183" t="n">
+        <v>94</v>
+      </c>
+      <c r="I183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45970.43521990741</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0x00,0x63</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>130</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H184" t="n">
+        <v>94</v>
+      </c>
+      <c r="I184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45971.43572916667</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0x00,0x62</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>130</v>
+      </c>
+      <c r="G185" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H185" t="n">
+        <v>93</v>
+      </c>
+      <c r="I185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45972.43623842593</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0x00,0x61</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>130</v>
+      </c>
+      <c r="G186" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H186" t="n">
+        <v>93</v>
+      </c>
+      <c r="I186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45973.43674768518</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0x00,0x60</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>130</v>
+      </c>
+      <c r="G187" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H187" t="n">
+        <v>90</v>
+      </c>
+      <c r="I187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45974.43725694445</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0x00,0x59</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>130</v>
+      </c>
+      <c r="G188" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H188" t="n">
+        <v>90</v>
+      </c>
+      <c r="I188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45975.4377662037</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0x00,0x58</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0x7</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>130</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H189" t="n">
+        <v>88</v>
+      </c>
+      <c r="I189" t="n">
         <v>7</v>
       </c>
     </row>
@@ -20610,7 +21498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27325,6 +28213,302 @@
         <v>3</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45968.43420138889</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0x00,0x62</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>130</v>
+      </c>
+      <c r="G182" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H182" t="n">
+        <v>99</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45969.43471064815</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0x00,0x61</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>130</v>
+      </c>
+      <c r="G183" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H183" t="n">
+        <v>98</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45970.43521990741</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0x00,0x60</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>130</v>
+      </c>
+      <c r="G184" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H184" t="n">
+        <v>98</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45971.43572916667</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0x00,0x59</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>130</v>
+      </c>
+      <c r="G185" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H185" t="n">
+        <v>97</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45972.43623842593</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0x00,0x58</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>130</v>
+      </c>
+      <c r="G186" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H186" t="n">
+        <v>97</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45973.43674768518</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0x00,0x57</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>130</v>
+      </c>
+      <c r="G187" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H187" t="n">
+        <v>96</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45974.43725694445</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0x00,0x56</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>130</v>
+      </c>
+      <c r="G188" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H188" t="n">
+        <v>96</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45975.4377662037</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>0x00,0x82</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0x00,0x55</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>130</v>
+      </c>
+      <c r="G189" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H189" t="n">
+        <v>95</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
